--- a/ExcelConfig/常量表.xlsx
+++ b/ExcelConfig/常量表.xlsx
@@ -478,7 +478,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -486,7 +486,8 @@
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.90625" style="2" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="23.36328125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.35">

--- a/ExcelConfig/常量表.xlsx
+++ b/ExcelConfig/常量表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,22 @@
   </si>
   <si>
     <t>PRODUCE_ITEM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCES_PRODUCE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源生产计算间隔时间（秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLLECT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集间隔时间（秒）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,16 +457,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -472,25 +488,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="38.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -500,8 +517,14 @@
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -511,8 +534,14 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -522,13 +551,25 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/常量表.xlsx
+++ b/ExcelConfig/常量表.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
-    <sheet name="ConstValuesConfig" sheetId="1" r:id="rId2"/>
+    <sheet name="ConstAttConfig" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,46 +33,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Int</t>
   </si>
   <si>
-    <t>ConstValuesConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConstValuesConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConstValuesConfig.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常量数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼金生产出道具的编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCE_ITEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESOURCES_PRODUCE_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源生产计算间隔时间（秒）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COLLECT_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集间隔时间（秒）</t>
+    <t>String</t>
+  </si>
+  <si>
+    <t>ConstAttConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstAttConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstAttConfig.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomStepLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewDistance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,30 +457,30 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -488,26 +491,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="22.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -515,33 +517,27 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -549,27 +545,32 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2">
-        <v>60</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/常量表.xlsx
+++ b/ExcelConfig/常量表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,20 +33,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
-    <t>String</t>
-  </si>
-  <si>
     <t>ConstAttConfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,19 +52,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RandomStepLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ViewDistance</t>
+    <t>ProduceRewardTick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认只有一行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算时间单位毫秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,27 +449,27 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -491,25 +480,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -517,27 +506,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -545,33 +528,26 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
+      <c r="C4" s="2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/常量表.xlsx
+++ b/ExcelConfig/常量表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,110 @@
   </si>
   <si>
     <t>计算时间单位毫秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldProduceLvl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级一的黄金参量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldProduceLvl1CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReliveNeedItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复活道具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultMapID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认开放地图ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultPackageSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认的包裹大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FoodItemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游戏中的干粮道具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认可出战英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultTeamSize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,13 +584,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -495,10 +599,16 @@
     <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -508,8 +618,29 @@
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -519,8 +650,29 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -530,9 +682,29 @@
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -542,11 +714,32 @@
       <c r="C4" s="2">
         <v>30000</v>
       </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>200</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>

--- a/ExcelConfig/常量表.xlsx
+++ b/ExcelConfig/常量表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,14 @@
   </si>
   <si>
     <t>DefaultTeamSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinCastleItemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回城卷轴ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,13 +592,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -605,10 +613,11 @@
     <col min="8" max="8" width="29.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="25.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="20.625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="18.625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -639,8 +648,11 @@
       <c r="J1" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -671,8 +683,11 @@
       <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -703,8 +718,11 @@
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -735,11 +753,14 @@
       <c r="J4" s="2">
         <v>1</v>
       </c>
+      <c r="K4" s="2">
+        <v>112</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>

--- a/ExcelConfig/常量表.xlsx
+++ b/ExcelConfig/常量表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20025" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,38 @@
   </si>
   <si>
     <t>回城卷轴ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutLineRewTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线收益时间毫秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可视范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrignalVisual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamblePerTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博弈次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShareRewardGem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日分享奖励钻石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +301,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -311,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,7 +378,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,13 +624,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -614,10 +646,12 @@
     <col min="9" max="9" width="25.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="20.625" style="2" customWidth="1"/>
     <col min="11" max="11" width="18.625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="12" max="12" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -651,8 +685,20 @@
       <c r="K1" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -686,8 +732,20 @@
       <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -721,8 +779,20 @@
       <c r="K3" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="L3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -730,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -739,7 +809,7 @@
         <v>200</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -748,19 +818,31 @@
         <v>20</v>
       </c>
       <c r="I4" s="2">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="2">
-        <v>112</v>
+        <v>157</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3600000</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6</v>
+      </c>
+      <c r="O4" s="2">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>

--- a/ExcelConfig/常量表.xlsx
+++ b/ExcelConfig/常量表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,12 +211,20 @@
     <t>每日分享奖励钻石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>初始移动格数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrignalMoveStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +264,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,12 +292,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -624,13 +640,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -648,10 +664,12 @@
     <col min="11" max="11" width="18.625" style="2" customWidth="1"/>
     <col min="12" max="12" width="18.375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="15" max="15" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -697,8 +715,11 @@
       <c r="O1" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -744,8 +765,11 @@
       <c r="O2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="P2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -782,7 +806,7 @@
       <c r="L3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -791,8 +815,11 @@
       <c r="O3" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="P3" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -838,11 +865,14 @@
       <c r="O4" s="2">
         <v>10</v>
       </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>

--- a/ExcelConfig/常量表.xlsx
+++ b/ExcelConfig/常量表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,14 @@
   </si>
   <si>
     <t>OrignalMoveStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零干粮移动距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutOffeedMoving</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,13 +648,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -665,11 +673,11 @@
     <col min="12" max="12" width="18.375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -718,8 +726,11 @@
       <c r="P1" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -768,8 +779,11 @@
       <c r="P2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="Q2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -818,8 +832,11 @@
       <c r="P3" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="Q3" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -868,11 +885,14 @@
       <c r="P4" s="2">
         <v>1</v>
       </c>
+      <c r="Q4" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>

--- a/ExcelConfig/常量表.xlsx
+++ b/ExcelConfig/常量表.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiexiongping/Documents/github/workdir/ExcelConfig/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20025" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="20020" windowHeight="8420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="ConstAttConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +237,12 @@
     <t>OutOffeedMoving</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>RandEventTime</t>
+  </si>
+  <si>
+    <t>秒 随机事件间隔时间</t>
+  </si>
 </sst>
 </file>
 
@@ -236,13 +252,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -309,7 +325,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -325,7 +341,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -367,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,7 +418,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,16 +633,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -648,36 +664,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
     <col min="7" max="7" width="21" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="17" max="17" width="19.5" style="2" customWidth="1"/>
+    <col min="18" max="18" width="24.5" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -727,10 +745,13 @@
         <v>38</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -782,8 +803,11 @@
       <c r="Q2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="R2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -833,10 +857,13 @@
         <v>37</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -886,19 +913,22 @@
         <v>1</v>
       </c>
       <c r="Q4" s="2">
+        <v>600</v>
+      </c>
+      <c r="R4" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
